--- a/Prácticas/excel_semanales.xlsx
+++ b/Prácticas/excel_semanales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blanc\Desktop\4CURSO\DPPI\Prácticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0C2E1-9C6A-472B-9531-38D52DB5A2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BED90F-C023-4D72-8580-422222180A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B15CD626-0BBF-435B-B338-0E582DF8236F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
   <si>
     <t>Datos del project</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>24 hrs</t>
-  </si>
-  <si>
-    <t>2,7 hrs</t>
   </si>
   <si>
     <r>
@@ -471,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -501,15 +498,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -848,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FB5DB9-D8F2-40D5-B4AF-0CD17AB5AB4A}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,20 +880,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="10">
@@ -927,13 +915,13 @@
       <c r="B4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="10">
@@ -945,9 +933,9 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="15">
+        <v>92</v>
+      </c>
+      <c r="L4" s="12">
         <v>1</v>
       </c>
       <c r="M4" t="s">
@@ -955,23 +943,23 @@
       </c>
       <c r="O4">
         <f>COUNTIFS(D3:D67, "100%", E3:E67,"No")</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="10">
@@ -982,7 +970,7 @@
         <f>LEFT(C5, FIND(" ", C5) - 1)*D5</f>
         <v>2</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="12">
         <v>2</v>
       </c>
       <c r="M5" t="s">
@@ -993,20 +981,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="10">
@@ -1022,7 +1010,7 @@
       </c>
       <c r="O6">
         <f>O4/O5*100</f>
-        <v>62.962962962962962</v>
+        <v>77.777777777777786</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -1032,13 +1020,13 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="10">
@@ -1049,7 +1037,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
         <v>4</v>
       </c>
       <c r="M7" t="s">
@@ -1057,7 +1045,7 @@
       </c>
       <c r="O7">
         <f>SUMIF(E3:E67,"No",F3:F67)-O9</f>
-        <v>26.5</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -1067,13 +1055,13 @@
       <c r="B8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="10">
@@ -1084,7 +1072,7 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="12">
         <v>3</v>
       </c>
       <c r="M8" t="s">
@@ -1092,7 +1080,7 @@
       </c>
       <c r="O8">
         <f>SUMIFS(G3:G67, D3:D67, "100%",E3:E67, "No")</f>
-        <v>29.9</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1102,13 +1090,13 @@
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="10">
@@ -1124,7 +1112,7 @@
       </c>
       <c r="O9">
         <f>SUMIFS(G3:G67, E3:E67, "No")</f>
-        <v>29.9</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -1134,13 +1122,13 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="10">
@@ -1156,7 +1144,7 @@
       </c>
       <c r="O10">
         <f>O9/O7*100</f>
-        <v>112.83018867924528</v>
+        <v>172.94117647058823</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1166,13 +1154,13 @@
       <c r="B11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="10">
@@ -1194,22 +1182,22 @@
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>92</v>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
         <v>56</v>
@@ -1222,13 +1210,13 @@
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="10">
@@ -1250,22 +1238,22 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>92</v>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -1275,13 +1263,13 @@
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="10">
@@ -1300,13 +1288,13 @@
       <c r="B16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="10">
@@ -1318,20 +1306,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="7">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="E17" s="12" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="10">
@@ -1340,7 +1328,7 @@
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>14.25</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1350,13 +1338,13 @@
       <c r="B18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="10">
@@ -1368,20 +1356,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="10">
@@ -1390,7 +1378,7 @@
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1400,13 +1388,13 @@
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="10">
@@ -1415,23 +1403,23 @@
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="10">
@@ -1440,7 +1428,7 @@
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1450,13 +1438,13 @@
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="10">
@@ -1468,20 +1456,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="10">
@@ -1490,23 +1478,23 @@
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="7">
         <v>5</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12" t="s">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="10">
@@ -1515,23 +1503,23 @@
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>3.2900000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="10">
@@ -1540,23 +1528,23 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12" t="s">
+        <v>0.17</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="10">
@@ -1565,23 +1553,23 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="5">
         <v>0</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="10">
@@ -1593,20 +1581,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="5">
         <v>0</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="10">
@@ -1625,13 +1613,13 @@
       <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="10">
@@ -1643,20 +1631,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="2">
         <v>8</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="10">
@@ -1675,38 +1663,38 @@
       <c r="B31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>57</v>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="10">
@@ -1725,13 +1713,13 @@
       <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="10">
@@ -1750,13 +1738,13 @@
       <c r="B34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="10">
@@ -1775,13 +1763,13 @@
       <c r="B35" s="8">
         <v>9</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="5">
         <v>0</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="10">
@@ -1795,25 +1783,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8D702837206A246AD455D6F121F9F4D" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8af291ae571d562e907f5a808a0c30a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29f4699c-91bc-4c71-b81f-33c037aa21d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdff752cfc903cde9893ce482e96e9b7" ns2:_="">
     <xsd:import namespace="29f4699c-91bc-4c71-b81f-33c037aa21d3"/>
@@ -1957,24 +1931,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15DC0D65-252D-4F21-96FC-A497D12D5F11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72758AEA-B62E-4E07-ACD6-CBF12E2D68B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A58D506-F60D-4B64-AC86-E6C7367A968C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1990,4 +1962,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72758AEA-B62E-4E07-ACD6-CBF12E2D68B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15DC0D65-252D-4F21-96FC-A497D12D5F11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>